--- a/TrevinoAsociadosApp/Empleados_sin_curp.xlsx
+++ b/TrevinoAsociadosApp/Empleados_sin_curp.xlsx
@@ -12,12 +12,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>EMPLEADO ID</t>
   </si>
   <si>
-    <t>208456</t>
+    <t>187348_ FECHA ERRONEA EN 122</t>
+  </si>
+  <si>
+    <t>202031_DUPLICADO EN 127</t>
+  </si>
+  <si>
+    <t>0003_ CURP ERRONEO EN 129</t>
+  </si>
+  <si>
+    <t>0015_ CURP ERRONEO EN 130</t>
+  </si>
+  <si>
+    <t>0015_ CURP ERRONEO EN 143</t>
+  </si>
+  <si>
+    <t>0036_ CURP ERRONEO EN 144</t>
   </si>
 </sst>
 </file>
@@ -83,7 +98,27 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
